--- a/report/spending-time/by-LikeShooterGames/NonParametricAnalysis.xlsx
+++ b/report/spending-time/by-LikeShooterGames/NonParametricAnalysis.xlsx
@@ -8,7 +8,7 @@
   <sheets>
     <sheet name="NonParametricTest" r:id="rId3" sheetId="1"/>
     <sheet name="Summary" r:id="rId4" sheetId="2"/>
-    <sheet name="LikeShooterSames_1" r:id="rId5" sheetId="3"/>
+    <sheet name="LikeShooterGames_1" r:id="rId5" sheetId="3"/>
     <sheet name="data" r:id="rId6" sheetId="4"/>
   </sheets>
 </workbook>
@@ -17,13 +17,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="76">
   <si>
-    <t>Summary of Kruskal-Wallis rank sum test for Spending Time (min) by Liking Shooter Games</t>
+    <t>Summary of Kruskal-Wallis rank sum test for Spending Time (min) by LikeShooterGames</t>
   </si>
   <si>
     <t xml:space="preserve">  </t>
   </si>
   <si>
-    <t>Kruskal-Wallis rank sum test Table: SpendTime ~ LikeShooterSames</t>
+    <t>Kruskal-Wallis rank sum test Table: SpendTime ~ LikeShooterGames</t>
   </si>
   <si>
     <t>chi.square</t>
@@ -41,7 +41,7 @@
     <t>Post-hoc Multiple test</t>
   </si>
   <si>
-    <t>Dunn's Kruskal-Wallis  (Bonferroni) for LikeShooterSames</t>
+    <t>Dunn's Kruskal-Wallis  (Bonferroni) for LikeShooterGames</t>
   </si>
   <si>
     <t>Comparison</t>
@@ -59,10 +59,10 @@
     <t>no - yes</t>
   </si>
   <si>
-    <t>Summary of Wilcoxon Analysis for Spending Time (min) by Liking Shooter Games</t>
-  </si>
-  <si>
-    <t>Wilcoxon Analysis for Spending Time (min) by Liking Shooter Games in LikeShooterSames between no:yes</t>
+    <t>Summary of Wilcoxon Analysis for Spending Time (min) by LikeShooterGames</t>
+  </si>
+  <si>
+    <t>Wilcoxon Analysis for Spending Time (min) by LikeShooterGames in LikeShooterGames between no:yes</t>
   </si>
   <si>
     <t>Wilcoxon test results</t>
@@ -161,7 +161,7 @@
     <t>LikeMMORPGGames</t>
   </si>
   <si>
-    <t>LikeShooterSames</t>
+    <t>LikeShooterGames</t>
   </si>
   <si>
     <t>LikeSimulationGames</t>
